--- a/mapping_spreadsheet/Casrec_Mapping_Document_Orders.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Orders.xlsx
@@ -6,7 +6,8 @@
     <sheet state="visible" name="cases" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="person_caseitem" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="order_type_lookup" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="order_subtype_lookup" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="bond_required_lookup" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="order_subtype_lookup" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">cases!$A$1:$Q$116</definedName>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="204">
   <si>
     <t>table_name</t>
   </si>
@@ -429,39 +430,39 @@
     <t>Bond Rqd</t>
   </si>
   <si>
-    <t>convert_to_bool</t>
+    <t>bond_required_lookup</t>
+  </si>
+  <si>
+    <t>bondreferencenumber</t>
+  </si>
+  <si>
+    <t>bondvalue</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>orderstatus</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Ord Stat</t>
+  </si>
+  <si>
+    <t>capitalise</t>
+  </si>
+  <si>
+    <t>new transformation ?</t>
+  </si>
+  <si>
+    <t>statusdate</t>
   </si>
   <si>
     <t>NO</t>
   </si>
   <si>
-    <t>bondreferencenumber</t>
-  </si>
-  <si>
-    <t>bondvalue</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>orderstatus</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>Ord Stat</t>
-  </si>
-  <si>
-    <t>capitalise</t>
-  </si>
-  <si>
-    <t>new transformation ?</t>
-  </si>
-  <si>
-    <t>statusdate</t>
-  </si>
-  <si>
     <t>caserecnumber</t>
   </si>
   <si>
@@ -598,6 +599,18 @@
   </si>
   <si>
     <t>Tenancy Order</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>NEW DEPUTY</t>
@@ -622,7 +635,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -661,6 +674,11 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF222222"/>
+      <name val="&quot;Google Sans&quot;"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -670,6 +688,14 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="6">
@@ -752,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -779,23 +805,44 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="2" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -817,6 +864,10 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -3269,13 +3320,14 @@
       <c r="J93" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K93" s="2" t="s">
+      <c r="K93" s="2"/>
+      <c r="L93" s="12" t="s">
         <v>137</v>
       </c>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
-      <c r="P93" s="4" t="s">
-        <v>138</v>
+      <c r="P93" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
@@ -3286,7 +3338,7 @@
         <v>17</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>34</v>
@@ -3308,10 +3360,10 @@
         <v>17</v>
       </c>
       <c r="C95" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="E95" s="2" t="b">
         <v>0</v>
@@ -3330,7 +3382,7 @@
         <v>17</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>34</v>
@@ -3342,13 +3394,13 @@
         <v>36</v>
       </c>
       <c r="I96" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="J96" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="K96" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="K96" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
@@ -3356,7 +3408,7 @@
         <v>21</v>
       </c>
       <c r="Q96" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
@@ -3367,7 +3419,7 @@
         <v>17</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>42</v>
@@ -3378,7 +3430,7 @@
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
       <c r="P97" s="4" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
@@ -3400,7 +3452,7 @@
       <c r="H98" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I98" s="12" t="s">
+      <c r="I98" s="14" t="s">
         <v>149</v>
       </c>
       <c r="J98" s="2" t="s">
@@ -3716,7 +3768,7 @@
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
       <c r="P111" s="4" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
@@ -3818,7 +3870,7 @@
       <c r="H115" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I115" s="13" t="s">
+      <c r="I115" s="15" t="s">
         <v>173</v>
       </c>
       <c r="J115" s="2" t="s">
@@ -3849,7 +3901,7 @@
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
       <c r="P116" s="4" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
@@ -6932,100 +6984,100 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="17" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="16">
+      <c r="A2" s="18">
         <v>1.0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="19" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="16">
+      <c r="A3" s="18">
         <v>2.0</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="19" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="16">
+      <c r="A4" s="18">
         <v>26.0</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="19" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="16">
+      <c r="A5" s="18">
         <v>40.0</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="19" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="16">
+      <c r="A6" s="18">
         <v>41.0</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="19" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="18">
+      <c r="A7" s="20">
         <v>43.0</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="19" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="18">
+      <c r="A8" s="20">
         <v>45.0</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="19" t="s">
         <v>186</v>
       </c>
     </row>
@@ -8464,6 +8516,1515 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="2" width="22.71"/>
+    <col customWidth="1" min="3" max="3" width="35.0"/>
+    <col customWidth="1" min="4" max="4" width="19.0"/>
+    <col customWidth="1" min="5" max="6" width="14.43"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.0" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="B63" s="4"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="B65" s="4"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="B69" s="4"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="B70" s="4"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="B71" s="4"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="B72" s="4"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="B74" s="4"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="B75" s="4"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="B76" s="4"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="B77" s="4"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="B78" s="4"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="B79" s="4"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="B81" s="4"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="B82" s="4"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="B83" s="4"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="B84" s="4"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="B86" s="4"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="B88" s="4"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="B89" s="4"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="B90" s="4"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="B91" s="4"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="B92" s="4"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="B93" s="4"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="B94" s="4"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="B95" s="4"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="B96" s="4"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="B97" s="4"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="B98" s="4"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="B99" s="4"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="B100" s="4"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="B101" s="4"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="B102" s="4"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="B103" s="4"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="B104" s="4"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="B105" s="4"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="B106" s="4"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="B107" s="4"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="B108" s="4"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="B109" s="4"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="B110" s="4"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="B111" s="4"/>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="B112" s="4"/>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="B113" s="4"/>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="B114" s="4"/>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="B115" s="4"/>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="B116" s="4"/>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="B117" s="4"/>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="B118" s="4"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="B119" s="4"/>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="B120" s="4"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="B121" s="4"/>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="B122" s="4"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="B123" s="4"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="B124" s="4"/>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="B125" s="4"/>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="B126" s="4"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="B127" s="4"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="B128" s="4"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="B129" s="4"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="B130" s="4"/>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="B131" s="4"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="B132" s="4"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="B133" s="4"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="B134" s="4"/>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="B135" s="4"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="B136" s="4"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="B137" s="4"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="B138" s="4"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="B139" s="4"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="B140" s="4"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="B141" s="4"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="B142" s="4"/>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="B143" s="4"/>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="B144" s="4"/>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="B145" s="4"/>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="B146" s="4"/>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="B147" s="4"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="B148" s="4"/>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="B149" s="4"/>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="B150" s="4"/>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="B151" s="4"/>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="B152" s="4"/>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="B153" s="4"/>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="B154" s="4"/>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="B155" s="4"/>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="B156" s="4"/>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="B157" s="4"/>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="B158" s="4"/>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="B159" s="4"/>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="B160" s="4"/>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="B161" s="4"/>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="B162" s="4"/>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="B163" s="4"/>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="B164" s="4"/>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="B165" s="4"/>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="B166" s="4"/>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="B167" s="4"/>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="B168" s="4"/>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="B169" s="4"/>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="B170" s="4"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="B171" s="4"/>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="B172" s="4"/>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="B173" s="4"/>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="B174" s="4"/>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="B175" s="4"/>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="B176" s="4"/>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="B177" s="4"/>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="B178" s="4"/>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="B179" s="4"/>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="B180" s="4"/>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="B181" s="4"/>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="B182" s="4"/>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="B183" s="4"/>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="B184" s="4"/>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="B185" s="4"/>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="B186" s="4"/>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="B187" s="4"/>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="B188" s="4"/>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="B189" s="4"/>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="B190" s="4"/>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="B191" s="4"/>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="B192" s="4"/>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="B193" s="4"/>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="B194" s="4"/>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="B195" s="4"/>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="B196" s="4"/>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="B197" s="4"/>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="B198" s="4"/>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="B199" s="4"/>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="B200" s="4"/>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="B201" s="4"/>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="B202" s="4"/>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="B203" s="4"/>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="B204" s="4"/>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="B205" s="4"/>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="B206" s="4"/>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="B207" s="4"/>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="B208" s="4"/>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="B209" s="4"/>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="B210" s="4"/>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="B211" s="4"/>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="B212" s="4"/>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="B213" s="4"/>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="B214" s="4"/>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="B215" s="4"/>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="B216" s="4"/>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="B217" s="4"/>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="B218" s="4"/>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="B219" s="4"/>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="B220" s="4"/>
+    </row>
+    <row r="221"/>
+    <row r="222"/>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
+    <row r="232"/>
+    <row r="233"/>
+    <row r="234"/>
+    <row r="235"/>
+    <row r="236"/>
+    <row r="237"/>
+    <row r="238"/>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241"/>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244"/>
+    <row r="245"/>
+    <row r="246"/>
+    <row r="247"/>
+    <row r="248"/>
+    <row r="249"/>
+    <row r="250"/>
+    <row r="251"/>
+    <row r="252"/>
+    <row r="253"/>
+    <row r="254"/>
+    <row r="255"/>
+    <row r="256"/>
+    <row r="257"/>
+    <row r="258"/>
+    <row r="259"/>
+    <row r="260"/>
+    <row r="261"/>
+    <row r="262"/>
+    <row r="263"/>
+    <row r="264"/>
+    <row r="265"/>
+    <row r="266"/>
+    <row r="267"/>
+    <row r="268"/>
+    <row r="269"/>
+    <row r="270"/>
+    <row r="271"/>
+    <row r="272"/>
+    <row r="273"/>
+    <row r="274"/>
+    <row r="275"/>
+    <row r="276"/>
+    <row r="277"/>
+    <row r="278"/>
+    <row r="279"/>
+    <row r="280"/>
+    <row r="281"/>
+    <row r="282"/>
+    <row r="283"/>
+    <row r="284"/>
+    <row r="285"/>
+    <row r="286"/>
+    <row r="287"/>
+    <row r="288"/>
+    <row r="289"/>
+    <row r="290"/>
+    <row r="291"/>
+    <row r="292"/>
+    <row r="293"/>
+    <row r="294"/>
+    <row r="295"/>
+    <row r="296"/>
+    <row r="297"/>
+    <row r="298"/>
+    <row r="299"/>
+    <row r="300"/>
+    <row r="301"/>
+    <row r="302"/>
+    <row r="303"/>
+    <row r="304"/>
+    <row r="305"/>
+    <row r="306"/>
+    <row r="307"/>
+    <row r="308"/>
+    <row r="309"/>
+    <row r="310"/>
+    <row r="311"/>
+    <row r="312"/>
+    <row r="313"/>
+    <row r="314"/>
+    <row r="315"/>
+    <row r="316"/>
+    <row r="317"/>
+    <row r="318"/>
+    <row r="319"/>
+    <row r="320"/>
+    <row r="321"/>
+    <row r="322"/>
+    <row r="323"/>
+    <row r="324"/>
+    <row r="325"/>
+    <row r="326"/>
+    <row r="327"/>
+    <row r="328"/>
+    <row r="329"/>
+    <row r="330"/>
+    <row r="331"/>
+    <row r="332"/>
+    <row r="333"/>
+    <row r="334"/>
+    <row r="335"/>
+    <row r="336"/>
+    <row r="337"/>
+    <row r="338"/>
+    <row r="339"/>
+    <row r="340"/>
+    <row r="341"/>
+    <row r="342"/>
+    <row r="343"/>
+    <row r="344"/>
+    <row r="345"/>
+    <row r="346"/>
+    <row r="347"/>
+    <row r="348"/>
+    <row r="349"/>
+    <row r="350"/>
+    <row r="351"/>
+    <row r="352"/>
+    <row r="353"/>
+    <row r="354"/>
+    <row r="355"/>
+    <row r="356"/>
+    <row r="357"/>
+    <row r="358"/>
+    <row r="359"/>
+    <row r="360"/>
+    <row r="361"/>
+    <row r="362"/>
+    <row r="363"/>
+    <row r="364"/>
+    <row r="365"/>
+    <row r="366"/>
+    <row r="367"/>
+    <row r="368"/>
+    <row r="369"/>
+    <row r="370"/>
+    <row r="371"/>
+    <row r="372"/>
+    <row r="373"/>
+    <row r="374"/>
+    <row r="375"/>
+    <row r="376"/>
+    <row r="377"/>
+    <row r="378"/>
+    <row r="379"/>
+    <row r="380"/>
+    <row r="381"/>
+    <row r="382"/>
+    <row r="383"/>
+    <row r="384"/>
+    <row r="385"/>
+    <row r="386"/>
+    <row r="387"/>
+    <row r="388"/>
+    <row r="389"/>
+    <row r="390"/>
+    <row r="391"/>
+    <row r="392"/>
+    <row r="393"/>
+    <row r="394"/>
+    <row r="395"/>
+    <row r="396"/>
+    <row r="397"/>
+    <row r="398"/>
+    <row r="399"/>
+    <row r="400"/>
+    <row r="401"/>
+    <row r="402"/>
+    <row r="403"/>
+    <row r="404"/>
+    <row r="405"/>
+    <row r="406"/>
+    <row r="407"/>
+    <row r="408"/>
+    <row r="409"/>
+    <row r="410"/>
+    <row r="411"/>
+    <row r="412"/>
+    <row r="413"/>
+    <row r="414"/>
+    <row r="415"/>
+    <row r="416"/>
+    <row r="417"/>
+    <row r="418"/>
+    <row r="419"/>
+    <row r="420"/>
+    <row r="421"/>
+    <row r="422"/>
+    <row r="423"/>
+    <row r="424"/>
+    <row r="425"/>
+    <row r="426"/>
+    <row r="427"/>
+    <row r="428"/>
+    <row r="429"/>
+    <row r="430"/>
+    <row r="431"/>
+    <row r="432"/>
+    <row r="433"/>
+    <row r="434"/>
+    <row r="435"/>
+    <row r="436"/>
+    <row r="437"/>
+    <row r="438"/>
+    <row r="439"/>
+    <row r="440"/>
+    <row r="441"/>
+    <row r="442"/>
+    <row r="443"/>
+    <row r="444"/>
+    <row r="445"/>
+    <row r="446"/>
+    <row r="447"/>
+    <row r="448"/>
+    <row r="449"/>
+    <row r="450"/>
+    <row r="451"/>
+    <row r="452"/>
+    <row r="453"/>
+    <row r="454"/>
+    <row r="455"/>
+    <row r="456"/>
+    <row r="457"/>
+    <row r="458"/>
+    <row r="459"/>
+    <row r="460"/>
+    <row r="461"/>
+    <row r="462"/>
+    <row r="463"/>
+    <row r="464"/>
+    <row r="465"/>
+    <row r="466"/>
+    <row r="467"/>
+    <row r="468"/>
+    <row r="469"/>
+    <row r="470"/>
+    <row r="471"/>
+    <row r="472"/>
+    <row r="473"/>
+    <row r="474"/>
+    <row r="475"/>
+    <row r="476"/>
+    <row r="477"/>
+    <row r="478"/>
+    <row r="479"/>
+    <row r="480"/>
+    <row r="481"/>
+    <row r="482"/>
+    <row r="483"/>
+    <row r="484"/>
+    <row r="485"/>
+    <row r="486"/>
+    <row r="487"/>
+    <row r="488"/>
+    <row r="489"/>
+    <row r="490"/>
+    <row r="491"/>
+    <row r="492"/>
+    <row r="493"/>
+    <row r="494"/>
+    <row r="495"/>
+    <row r="496"/>
+    <row r="497"/>
+    <row r="498"/>
+    <row r="499"/>
+    <row r="500"/>
+    <row r="501"/>
+    <row r="502"/>
+    <row r="503"/>
+    <row r="504"/>
+    <row r="505"/>
+    <row r="506"/>
+    <row r="507"/>
+    <row r="508"/>
+    <row r="509"/>
+    <row r="510"/>
+    <row r="511"/>
+    <row r="512"/>
+    <row r="513"/>
+    <row r="514"/>
+    <row r="515"/>
+    <row r="516"/>
+    <row r="517"/>
+    <row r="518"/>
+    <row r="519"/>
+    <row r="520"/>
+    <row r="521"/>
+    <row r="522"/>
+    <row r="523"/>
+    <row r="524"/>
+    <row r="525"/>
+    <row r="526"/>
+    <row r="527"/>
+    <row r="528"/>
+    <row r="529"/>
+    <row r="530"/>
+    <row r="531"/>
+    <row r="532"/>
+    <row r="533"/>
+    <row r="534"/>
+    <row r="535"/>
+    <row r="536"/>
+    <row r="537"/>
+    <row r="538"/>
+    <row r="539"/>
+    <row r="540"/>
+    <row r="541"/>
+    <row r="542"/>
+    <row r="543"/>
+    <row r="544"/>
+    <row r="545"/>
+    <row r="546"/>
+    <row r="547"/>
+    <row r="548"/>
+    <row r="549"/>
+    <row r="550"/>
+    <row r="551"/>
+    <row r="552"/>
+    <row r="553"/>
+    <row r="554"/>
+    <row r="555"/>
+    <row r="556"/>
+    <row r="557"/>
+    <row r="558"/>
+    <row r="559"/>
+    <row r="560"/>
+    <row r="561"/>
+    <row r="562"/>
+    <row r="563"/>
+    <row r="564"/>
+    <row r="565"/>
+    <row r="566"/>
+    <row r="567"/>
+    <row r="568"/>
+    <row r="569"/>
+    <row r="570"/>
+    <row r="571"/>
+    <row r="572"/>
+    <row r="573"/>
+    <row r="574"/>
+    <row r="575"/>
+    <row r="576"/>
+    <row r="577"/>
+    <row r="578"/>
+    <row r="579"/>
+    <row r="580"/>
+    <row r="581"/>
+    <row r="582"/>
+    <row r="583"/>
+    <row r="584"/>
+    <row r="585"/>
+    <row r="586"/>
+    <row r="587"/>
+    <row r="588"/>
+    <row r="589"/>
+    <row r="590"/>
+    <row r="591"/>
+    <row r="592"/>
+    <row r="593"/>
+    <row r="594"/>
+    <row r="595"/>
+    <row r="596"/>
+    <row r="597"/>
+    <row r="598"/>
+    <row r="599"/>
+    <row r="600"/>
+    <row r="601"/>
+    <row r="602"/>
+    <row r="603"/>
+    <row r="604"/>
+    <row r="605"/>
+    <row r="606"/>
+    <row r="607"/>
+    <row r="608"/>
+    <row r="609"/>
+    <row r="610"/>
+    <row r="611"/>
+    <row r="612"/>
+    <row r="613"/>
+    <row r="614"/>
+    <row r="615"/>
+    <row r="616"/>
+    <row r="617"/>
+    <row r="618"/>
+    <row r="619"/>
+    <row r="620"/>
+    <row r="621"/>
+    <row r="622"/>
+    <row r="623"/>
+    <row r="624"/>
+    <row r="625"/>
+    <row r="626"/>
+    <row r="627"/>
+    <row r="628"/>
+    <row r="629"/>
+    <row r="630"/>
+    <row r="631"/>
+    <row r="632"/>
+    <row r="633"/>
+    <row r="634"/>
+    <row r="635"/>
+    <row r="636"/>
+    <row r="637"/>
+    <row r="638"/>
+    <row r="639"/>
+    <row r="640"/>
+    <row r="641"/>
+    <row r="642"/>
+    <row r="643"/>
+    <row r="644"/>
+    <row r="645"/>
+    <row r="646"/>
+    <row r="647"/>
+    <row r="648"/>
+    <row r="649"/>
+    <row r="650"/>
+    <row r="651"/>
+    <row r="652"/>
+    <row r="653"/>
+    <row r="654"/>
+    <row r="655"/>
+    <row r="656"/>
+    <row r="657"/>
+    <row r="658"/>
+    <row r="659"/>
+    <row r="660"/>
+    <row r="661"/>
+    <row r="662"/>
+    <row r="663"/>
+    <row r="664"/>
+    <row r="665"/>
+    <row r="666"/>
+    <row r="667"/>
+    <row r="668"/>
+    <row r="669"/>
+    <row r="670"/>
+    <row r="671"/>
+    <row r="672"/>
+    <row r="673"/>
+    <row r="674"/>
+    <row r="675"/>
+    <row r="676"/>
+    <row r="677"/>
+    <row r="678"/>
+    <row r="679"/>
+    <row r="680"/>
+    <row r="681"/>
+    <row r="682"/>
+    <row r="683"/>
+    <row r="684"/>
+    <row r="685"/>
+    <row r="686"/>
+    <row r="687"/>
+    <row r="688"/>
+    <row r="689"/>
+    <row r="690"/>
+    <row r="691"/>
+    <row r="692"/>
+    <row r="693"/>
+    <row r="694"/>
+    <row r="695"/>
+    <row r="696"/>
+    <row r="697"/>
+    <row r="698"/>
+    <row r="699"/>
+    <row r="700"/>
+    <row r="701"/>
+    <row r="702"/>
+    <row r="703"/>
+    <row r="704"/>
+    <row r="705"/>
+    <row r="706"/>
+    <row r="707"/>
+    <row r="708"/>
+    <row r="709"/>
+    <row r="710"/>
+    <row r="711"/>
+    <row r="712"/>
+    <row r="713"/>
+    <row r="714"/>
+    <row r="715"/>
+    <row r="716"/>
+    <row r="717"/>
+    <row r="718"/>
+    <row r="719"/>
+    <row r="720"/>
+    <row r="721"/>
+    <row r="722"/>
+    <row r="723"/>
+    <row r="724"/>
+    <row r="725"/>
+    <row r="726"/>
+    <row r="727"/>
+    <row r="728"/>
+    <row r="729"/>
+    <row r="730"/>
+    <row r="731"/>
+    <row r="732"/>
+    <row r="733"/>
+    <row r="734"/>
+    <row r="735"/>
+    <row r="736"/>
+    <row r="737"/>
+    <row r="738"/>
+    <row r="739"/>
+    <row r="740"/>
+    <row r="741"/>
+    <row r="742"/>
+    <row r="743"/>
+    <row r="744"/>
+    <row r="745"/>
+    <row r="746"/>
+    <row r="747"/>
+    <row r="748"/>
+    <row r="749"/>
+    <row r="750"/>
+    <row r="751"/>
+    <row r="752"/>
+    <row r="753"/>
+    <row r="754"/>
+    <row r="755"/>
+    <row r="756"/>
+    <row r="757"/>
+    <row r="758"/>
+    <row r="759"/>
+    <row r="760"/>
+    <row r="761"/>
+    <row r="762"/>
+    <row r="763"/>
+    <row r="764"/>
+    <row r="765"/>
+    <row r="766"/>
+    <row r="767"/>
+    <row r="768"/>
+    <row r="769"/>
+    <row r="770"/>
+    <row r="771"/>
+    <row r="772"/>
+    <row r="773"/>
+    <row r="774"/>
+    <row r="775"/>
+    <row r="776"/>
+    <row r="777"/>
+    <row r="778"/>
+    <row r="779"/>
+    <row r="780"/>
+    <row r="781"/>
+    <row r="782"/>
+    <row r="783"/>
+    <row r="784"/>
+    <row r="785"/>
+    <row r="786"/>
+    <row r="787"/>
+    <row r="788"/>
+    <row r="789"/>
+    <row r="790"/>
+    <row r="791"/>
+    <row r="792"/>
+    <row r="793"/>
+    <row r="794"/>
+    <row r="795"/>
+    <row r="796"/>
+    <row r="797"/>
+    <row r="798"/>
+    <row r="799"/>
+    <row r="800"/>
+    <row r="801"/>
+    <row r="802"/>
+    <row r="803"/>
+    <row r="804"/>
+    <row r="805"/>
+    <row r="806"/>
+    <row r="807"/>
+    <row r="808"/>
+    <row r="809"/>
+    <row r="810"/>
+    <row r="811"/>
+    <row r="812"/>
+    <row r="813"/>
+    <row r="814"/>
+    <row r="815"/>
+    <row r="816"/>
+    <row r="817"/>
+    <row r="818"/>
+    <row r="819"/>
+    <row r="820"/>
+    <row r="821"/>
+    <row r="822"/>
+    <row r="823"/>
+    <row r="824"/>
+    <row r="825"/>
+    <row r="826"/>
+    <row r="827"/>
+    <row r="828"/>
+    <row r="829"/>
+    <row r="830"/>
+    <row r="831"/>
+    <row r="832"/>
+    <row r="833"/>
+    <row r="834"/>
+    <row r="835"/>
+    <row r="836"/>
+    <row r="837"/>
+    <row r="838"/>
+    <row r="839"/>
+    <row r="840"/>
+    <row r="841"/>
+    <row r="842"/>
+    <row r="843"/>
+    <row r="844"/>
+    <row r="845"/>
+    <row r="846"/>
+    <row r="847"/>
+    <row r="848"/>
+    <row r="849"/>
+    <row r="850"/>
+    <row r="851"/>
+    <row r="852"/>
+    <row r="853"/>
+    <row r="854"/>
+    <row r="855"/>
+    <row r="856"/>
+    <row r="857"/>
+    <row r="858"/>
+    <row r="859"/>
+    <row r="860"/>
+    <row r="861"/>
+    <row r="862"/>
+    <row r="863"/>
+    <row r="864"/>
+    <row r="865"/>
+    <row r="866"/>
+    <row r="867"/>
+    <row r="868"/>
+    <row r="869"/>
+    <row r="870"/>
+    <row r="871"/>
+    <row r="872"/>
+    <row r="873"/>
+    <row r="874"/>
+    <row r="875"/>
+    <row r="876"/>
+    <row r="877"/>
+    <row r="878"/>
+    <row r="879"/>
+    <row r="880"/>
+    <row r="881"/>
+    <row r="882"/>
+    <row r="883"/>
+    <row r="884"/>
+    <row r="885"/>
+    <row r="886"/>
+    <row r="887"/>
+    <row r="888"/>
+    <row r="889"/>
+    <row r="890"/>
+    <row r="891"/>
+    <row r="892"/>
+    <row r="893"/>
+    <row r="894"/>
+    <row r="895"/>
+    <row r="896"/>
+    <row r="897"/>
+    <row r="898"/>
+    <row r="899"/>
+    <row r="900"/>
+    <row r="901"/>
+    <row r="902"/>
+    <row r="903"/>
+    <row r="904"/>
+    <row r="905"/>
+    <row r="906"/>
+    <row r="907"/>
+    <row r="908"/>
+    <row r="909"/>
+    <row r="910"/>
+    <row r="911"/>
+    <row r="912"/>
+    <row r="913"/>
+    <row r="914"/>
+    <row r="915"/>
+    <row r="916"/>
+    <row r="917"/>
+    <row r="918"/>
+    <row r="919"/>
+    <row r="920"/>
+    <row r="921"/>
+    <row r="922"/>
+    <row r="923"/>
+    <row r="924"/>
+    <row r="925"/>
+    <row r="926"/>
+    <row r="927"/>
+    <row r="928"/>
+    <row r="929"/>
+    <row r="930"/>
+    <row r="931"/>
+    <row r="932"/>
+    <row r="933"/>
+    <row r="934"/>
+    <row r="935"/>
+    <row r="936"/>
+    <row r="937"/>
+    <row r="938"/>
+    <row r="939"/>
+    <row r="940"/>
+    <row r="941"/>
+    <row r="942"/>
+    <row r="943"/>
+    <row r="944"/>
+    <row r="945"/>
+    <row r="946"/>
+    <row r="947"/>
+    <row r="948"/>
+    <row r="949"/>
+    <row r="950"/>
+    <row r="951"/>
+    <row r="952"/>
+    <row r="953"/>
+    <row r="954"/>
+    <row r="955"/>
+    <row r="956"/>
+    <row r="957"/>
+    <row r="958"/>
+    <row r="959"/>
+    <row r="960"/>
+    <row r="961"/>
+    <row r="962"/>
+    <row r="963"/>
+    <row r="964"/>
+    <row r="965"/>
+    <row r="966"/>
+    <row r="967"/>
+    <row r="968"/>
+    <row r="969"/>
+    <row r="970"/>
+    <row r="971"/>
+    <row r="972"/>
+    <row r="973"/>
+    <row r="974"/>
+    <row r="975"/>
+    <row r="976"/>
+    <row r="977"/>
+    <row r="978"/>
+    <row r="979"/>
+    <row r="980"/>
+    <row r="981"/>
+    <row r="982"/>
+    <row r="983"/>
+    <row r="984"/>
+    <row r="985"/>
+    <row r="986"/>
+    <row r="987"/>
+    <row r="988"/>
+    <row r="989"/>
+    <row r="990"/>
+    <row r="991"/>
+    <row r="992"/>
+    <row r="993"/>
+    <row r="994"/>
+    <row r="995"/>
+    <row r="996"/>
+    <row r="997"/>
+    <row r="998"/>
+    <row r="999"/>
+    <row r="1000"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
     <col customWidth="1" min="1" max="2" width="13.0"/>
     <col customWidth="1" min="3" max="3" width="35.0"/>
     <col customWidth="1" min="4" max="4" width="19.0"/>
@@ -8471,101 +10032,101 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="22" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="16">
+      <c r="A2" s="18">
         <v>1.0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>194</v>
+      <c r="D2" s="22" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="16">
+      <c r="A3" s="18">
         <v>2.0</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>194</v>
+      <c r="D3" s="22" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="16">
+      <c r="A4" s="18">
         <v>26.0</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>195</v>
+      <c r="D4" s="22" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="16">
+      <c r="A5" s="18">
         <v>40.0</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>196</v>
+      <c r="D5" s="22" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="18">
+      <c r="A6" s="20">
         <v>41.0</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>197</v>
+      <c r="D6" s="22" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="18">
+      <c r="A7" s="20">
         <v>43.0</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>198</v>
+      <c r="D7" s="22" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="18">
+      <c r="A8" s="20">
         <v>45.0</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>199</v>
+      <c r="D8" s="22" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="9">

--- a/mapping_spreadsheet/Casrec_Mapping_Document_Orders.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Orders.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifermackown/Documents/work/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack/OPG/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149C5641-4A69-5C41-BF6B-6F83A145E67C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF52944D-61BD-BF4F-A838-BFD2DDD9CD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19260" yWindow="12740" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="216">
   <si>
     <t>table_name</t>
   </si>
@@ -669,10 +669,13 @@
     <t>data</t>
   </si>
   <si>
-    <t>Order No, CoP Case, Bond No.</t>
-  </si>
-  <si>
     <t>join</t>
+  </si>
+  <si>
+    <t>exclude_values = {"col": "Ord Stat", "values": ["Open"]}</t>
+  </si>
+  <si>
+    <t>Order No, CoP Case, Bond No., Ord Stat</t>
   </si>
 </sst>
 </file>
@@ -1111,10 +1114,15 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.83203125" customWidth="1"/>
+    <col min="8" max="8" width="34.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" s="29" customFormat="1">
       <c r="A1" s="28" t="s">
@@ -1158,8 +1166,11 @@
       <c r="F2" s="29" t="s">
         <v>60</v>
       </c>
+      <c r="G2" s="29" t="s">
+        <v>214</v>
+      </c>
       <c r="H2" s="29" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="29" customFormat="1">
@@ -1173,7 +1184,7 @@
         <v>176</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -7105,7 +7116,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" ht="14">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -7117,7 +7128,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" ht="14">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -7129,7 +7140,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="14">
       <c r="A4" s="18">
         <v>26</v>
       </c>
@@ -7141,7 +7152,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="14">
       <c r="A5" s="18">
         <v>40</v>
       </c>
@@ -7153,7 +7164,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="14">
       <c r="A6" s="18">
         <v>41</v>
       </c>
@@ -7165,7 +7176,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="14">
       <c r="A7" s="20">
         <v>43</v>
       </c>
@@ -7177,7 +7188,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="14">
       <c r="A8" s="20">
         <v>45</v>
       </c>
@@ -8666,31 +8677,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="14">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="14">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="14">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="14">
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
       <c r="C7" s="22"/>
       <c r="D7" s="19"/>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="14">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
@@ -10149,7 +10160,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" ht="14">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -10161,7 +10172,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" ht="14">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -10173,7 +10184,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="14">
       <c r="A4" s="18">
         <v>26</v>
       </c>
@@ -10185,7 +10196,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="14">
       <c r="A5" s="18">
         <v>40</v>
       </c>
@@ -10197,7 +10208,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="14">
       <c r="A6" s="20">
         <v>41</v>
       </c>
@@ -10209,7 +10220,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="14">
       <c r="A7" s="20">
         <v>43</v>
       </c>
@@ -10221,7 +10232,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="14">
       <c r="A8" s="20">
         <v>45</v>
       </c>
